--- a/notes/Limelight- Calibration-mura.xlsx
+++ b/notes/Limelight- Calibration-mura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Sjostrand\Documents\FRC-2022-robot\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511E33F-01AB-4386-94B7-20481BEB2122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A3517-B014-4B8E-9073-874989FE670F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7905" yWindow="4050" windowWidth="17280" windowHeight="7305" xr2:uid="{FE501948-1975-42BA-9171-BD5E4C18C7F2}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
